--- a/details.xlsx
+++ b/details.xlsx
@@ -45,7 +45,7 @@
     <t>rajasthan</t>
   </si>
   <si>
-    <t>jaipur</t>
+    <t>Jaipur Vidyut Vitran Nigam (JVVNL)</t>
   </si>
 </sst>
 </file>
@@ -377,14 +377,14 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/details.xlsx
+++ b/details.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
   <si>
     <t>Email</t>
   </si>
@@ -36,23 +37,56 @@
     <t>K-Number</t>
   </si>
   <si>
-    <t>bhupsamaiet@gmail.com</t>
-  </si>
-  <si>
-    <t>Lav%210811</t>
-  </si>
-  <si>
     <t>rajasthan</t>
   </si>
   <si>
     <t>Jaipur Vidyut Vitran Nigam (JVVNL)</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>3183</t>
+  </si>
+  <si>
+    <t>BBPS_Reference_Number</t>
+  </si>
+  <si>
+    <t>12345678</t>
+  </si>
+  <si>
+    <t>rahul.mansarovarjaipur@gmail.com</t>
+  </si>
+  <si>
+    <t>210131027910</t>
+  </si>
+  <si>
+    <t>210131037191</t>
+  </si>
+  <si>
+    <t>210131037780</t>
+  </si>
+  <si>
+    <t>210131043005</t>
+  </si>
+  <si>
+    <t>210131045242</t>
+  </si>
+  <si>
+    <t>BD011286OA3AAADD6NC5</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Success</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,6 +101,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0F1111"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -86,16 +134,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -374,73 +430,179 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>1234567890</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>1234567890</v>
+      <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/details.xlsx
+++ b/details.xlsx
@@ -432,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/details.xlsx
+++ b/details.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
   <si>
     <t>Email</t>
   </si>
@@ -80,6 +80,15 @@
   </si>
   <si>
     <t>Success</t>
+  </si>
+  <si>
+    <t>bhupsamaiet@gmail.com</t>
+  </si>
+  <si>
+    <t>Lav%210811</t>
+  </si>
+  <si>
+    <t>210571032861</t>
   </si>
 </sst>
 </file>
@@ -138,7 +147,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -149,6 +158,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -430,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,12 +483,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -487,11 +497,11 @@
         <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -507,13 +517,13 @@
         <v>6</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -527,11 +537,11 @@
         <v>6</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -547,21 +557,42 @@
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId2"/>
+    <hyperlink ref="A5" r:id="rId3"/>
+    <hyperlink ref="A6" r:id="rId4"/>
+    <hyperlink ref="A2" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/details.xlsx
+++ b/details.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="27">
   <si>
     <t>Email</t>
   </si>
@@ -88,7 +88,19 @@
     <t>Lav%210811</t>
   </si>
   <si>
-    <t>210571032861</t>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Server not response</t>
+  </si>
+  <si>
+    <t>130131001807</t>
+  </si>
+  <si>
+    <t>Ajmer Vidyut Vitran Nigam Limited (AVVNL)</t>
+  </si>
+  <si>
+    <t>210462062669</t>
   </si>
 </sst>
 </file>
@@ -147,7 +159,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -159,6 +171,12 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -440,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,7 +501,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>20</v>
       </c>
@@ -494,14 +512,18 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="H2" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -520,8 +542,12 @@
         <v>13</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="G3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -540,8 +566,12 @@
         <v>14</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="G4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -562,6 +592,12 @@
       <c r="F5" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="G5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -581,6 +617,36 @@
       </c>
       <c r="F6" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -590,9 +656,10 @@
     <hyperlink ref="A5" r:id="rId3"/>
     <hyperlink ref="A6" r:id="rId4"/>
     <hyperlink ref="A2" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -601,7 +668,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/details.xlsx
+++ b/details.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="29">
   <si>
     <t>Email</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>3183</t>
-  </si>
-  <si>
     <t>BBPS_Reference_Number</t>
   </si>
   <si>
@@ -101,13 +98,22 @@
   </si>
   <si>
     <t>210462062669</t>
+  </si>
+  <si>
+    <t>210474049604</t>
+  </si>
+  <si>
+    <t>Response_Amount</t>
+  </si>
+  <si>
+    <t>8.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +143,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -159,23 +172,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -458,208 +485,240 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="8"/>
+    <col min="4" max="4" width="34.5703125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="C3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="7" t="s">
+      <c r="I8" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
-    <hyperlink ref="A4" r:id="rId2"/>
-    <hyperlink ref="A5" r:id="rId3"/>
-    <hyperlink ref="A6" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId1"/>
+    <hyperlink ref="A5" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId3"/>
+    <hyperlink ref="A7" r:id="rId4"/>
     <hyperlink ref="A2" r:id="rId5"/>
-    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId6"/>
+    <hyperlink ref="A3" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -668,17 +727,20 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="24.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -686,15 +748,15 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="5" t="s">
-        <v>17</v>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="H1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/details.xlsx
+++ b/details.xlsx
@@ -1,14 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A71627B-2770-4007-8152-A49ABDB4FDB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="161">
   <si>
     <t>Email</t>
   </si>
@@ -58,18 +60,6 @@
     <t>210131027910</t>
   </si>
   <si>
-    <t>210131037191</t>
-  </si>
-  <si>
-    <t>210131037780</t>
-  </si>
-  <si>
-    <t>210131043005</t>
-  </si>
-  <si>
-    <t>210131045242</t>
-  </si>
-  <si>
     <t>BD011286OA3AAADD6NC5</t>
   </si>
   <si>
@@ -91,29 +81,437 @@
     <t>Server not response</t>
   </si>
   <si>
+    <t>Ajmer Vidyut Vitran Nigam Limited (AVVNL)</t>
+  </si>
+  <si>
+    <t>Response_Amount</t>
+  </si>
+  <si>
+    <t>SONU AGRAWAL</t>
+  </si>
+  <si>
+    <t>NARENDRA</t>
+  </si>
+  <si>
+    <t>GULAM RASHUL</t>
+  </si>
+  <si>
+    <t>NAZARUDDIN</t>
+  </si>
+  <si>
+    <t>TEJ MAL KUMAWAT</t>
+  </si>
+  <si>
+    <t>Mrs. Manni Devi Sahu</t>
+  </si>
+  <si>
+    <t>MUNNI DEVI</t>
+  </si>
+  <si>
+    <t>MOHAN LAL</t>
+  </si>
+  <si>
+    <t>M/S SHIKHAR PRINTERS</t>
+  </si>
+  <si>
+    <t>Ramesh Chand</t>
+  </si>
+  <si>
+    <t>JHAMAT MAL</t>
+  </si>
+  <si>
+    <t>VIMLA DEVI</t>
+  </si>
+  <si>
+    <t>KAJOD MAL SHARMA</t>
+  </si>
+  <si>
+    <t>ROSHAN LAL SARRAF</t>
+  </si>
+  <si>
+    <t>SUKH SINGH RATHOR</t>
+  </si>
+  <si>
+    <t>UMASHANKAR AGARWAL</t>
+  </si>
+  <si>
+    <t>OM PRAKASH VAJPAYEE</t>
+  </si>
+  <si>
+    <t>SH KHOOB CHAND MISTRI</t>
+  </si>
+  <si>
+    <t>M/S SURAJ MURTI KALA</t>
+  </si>
+  <si>
+    <t>SMT KESHARI DEVI</t>
+  </si>
+  <si>
+    <t>M/S SURAJ MURTI KALA KUNJ</t>
+  </si>
+  <si>
+    <t>RAMESH CHAND VAJPEI</t>
+  </si>
+  <si>
+    <t>SHRI KRISHAN KUMAR VAJPEI</t>
+  </si>
+  <si>
+    <t>Shiv Charan Lal</t>
+  </si>
+  <si>
+    <t>MOHAN SINGH</t>
+  </si>
+  <si>
+    <t>LAXMI NARAYAN SAHU</t>
+  </si>
+  <si>
+    <t>SH. SHANTI LAL KHANDELWAL</t>
+  </si>
+  <si>
+    <t>JAGDISH NARYAN JOONWAL</t>
+  </si>
+  <si>
+    <t>JAGDISH NARAYAN JUNKAL</t>
+  </si>
+  <si>
+    <t>MUNNI DEVI GUPTA</t>
+  </si>
+  <si>
+    <t>MITHU RAM</t>
+  </si>
+  <si>
+    <t>SANJAY SHARMA</t>
+  </si>
+  <si>
+    <t>HAJARI LAL NARAIN</t>
+  </si>
+  <si>
+    <t>NARGIS BEGAM</t>
+  </si>
+  <si>
+    <t>Ghasi Lal</t>
+  </si>
+  <si>
+    <t>MOHAN LAL HALVAI</t>
+  </si>
+  <si>
+    <t>SHASHI KUMAR PRABHANE</t>
+  </si>
+  <si>
+    <t>MALI RAM</t>
+  </si>
+  <si>
+    <t>DILIP RAJ</t>
+  </si>
+  <si>
+    <t>SMT BHANWARI DEVI</t>
+  </si>
+  <si>
+    <t>KAMLA DEVI W/O</t>
+  </si>
+  <si>
+    <t>GOKUL NARAYAN SHARMA</t>
+  </si>
+  <si>
+    <t>SARDAR GEGAM</t>
+  </si>
+  <si>
+    <t>TARE CHAND SAINI</t>
+  </si>
+  <si>
+    <t>PAPPU GOLECHA</t>
+  </si>
+  <si>
+    <t>GIRIJA SHANKAR</t>
+  </si>
+  <si>
+    <t>MEHRU NISHA</t>
+  </si>
+  <si>
+    <t>PRESIDENTKARNI CHARAN</t>
+  </si>
+  <si>
+    <t>SUSHILA DEVI</t>
+  </si>
+  <si>
+    <t>DEVKI NANDAN</t>
+  </si>
+  <si>
+    <t>UMA SHANKAR SONI</t>
+  </si>
+  <si>
+    <t>M/S CALCATA REDIYAM</t>
+  </si>
+  <si>
+    <t>MALI RAM JAMADAR</t>
+  </si>
+  <si>
+    <t>BEBI BANO</t>
+  </si>
+  <si>
+    <t>UDAI SINGH</t>
+  </si>
+  <si>
+    <t>ISHWAR LAL MALHOTRA</t>
+  </si>
+  <si>
+    <t>NESHAR AHAMED</t>
+  </si>
+  <si>
+    <t>LALLU RAM</t>
+  </si>
+  <si>
+    <t>CHOTH MAL SAINI</t>
+  </si>
+  <si>
+    <t>MALI RAM MASTER</t>
+  </si>
+  <si>
+    <t>CHAUHAN FURNI SINGH</t>
+  </si>
+  <si>
+    <t>RAM SNEHI MAHARAJ</t>
+  </si>
+  <si>
+    <t>SH.VIJAY KUMAR</t>
+  </si>
+  <si>
+    <t>MUNNA LAL</t>
+  </si>
+  <si>
+    <t>MADAN lal</t>
+  </si>
+  <si>
+    <t>VINOD KUMAR</t>
+  </si>
+  <si>
+    <t>RAM DEV GURJAR</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>210594017733</t>
+  </si>
+  <si>
+    <t>210451022714</t>
+  </si>
+  <si>
+    <t>210433021810</t>
+  </si>
+  <si>
+    <t>210451013276</t>
+  </si>
+  <si>
+    <t>210422025881</t>
+  </si>
+  <si>
+    <t>210412031132</t>
+  </si>
+  <si>
+    <t>210451011524</t>
+  </si>
+  <si>
+    <t>210451003305</t>
+  </si>
+  <si>
+    <t>210451023729</t>
+  </si>
+  <si>
+    <t>210522023466</t>
+  </si>
+  <si>
+    <t>210411004302</t>
+  </si>
+  <si>
+    <t>210411021013</t>
+  </si>
+  <si>
+    <t>210433009779</t>
+  </si>
+  <si>
+    <t>210451012114</t>
+  </si>
+  <si>
+    <t>210451013741</t>
+  </si>
+  <si>
+    <t>210472033219</t>
+  </si>
+  <si>
+    <t>210433027260</t>
+  </si>
+  <si>
+    <t>210433006147</t>
+  </si>
+  <si>
+    <t>210433022357</t>
+  </si>
+  <si>
+    <t>210433022356</t>
+  </si>
+  <si>
+    <t>210433017843</t>
+  </si>
+  <si>
+    <t>210433018398</t>
+  </si>
+  <si>
+    <t>210433018395</t>
+  </si>
+  <si>
+    <t>210451014522</t>
+  </si>
+  <si>
+    <t>210451020305</t>
+  </si>
+  <si>
+    <t>210451003109</t>
+  </si>
+  <si>
+    <t>210451003406</t>
+  </si>
+  <si>
+    <t>210433008746</t>
+  </si>
+  <si>
+    <t>210451024552</t>
+  </si>
+  <si>
+    <t>210451002829</t>
+  </si>
+  <si>
+    <t>210453005986</t>
+  </si>
+  <si>
+    <t>210451011537</t>
+  </si>
+  <si>
+    <t>210451023273</t>
+  </si>
+  <si>
+    <t>210451002908</t>
+  </si>
+  <si>
+    <t>210451003522</t>
+  </si>
+  <si>
+    <t>210451003739</t>
+  </si>
+  <si>
+    <t>210451010496</t>
+  </si>
+  <si>
+    <t>210434002115</t>
+  </si>
+  <si>
+    <t>210472039385</t>
+  </si>
+  <si>
+    <t>210433026806</t>
+  </si>
+  <si>
+    <t>210473010255</t>
+  </si>
+  <si>
+    <t>210451013620</t>
+  </si>
+  <si>
+    <t>210451020214</t>
+  </si>
+  <si>
+    <t>210453018627</t>
+  </si>
+  <si>
+    <t>210433024185</t>
+  </si>
+  <si>
+    <t>210451003182</t>
+  </si>
+  <si>
+    <t>210451003423</t>
+  </si>
+  <si>
+    <t>210451003527</t>
+  </si>
+  <si>
+    <t>210434014149</t>
+  </si>
+  <si>
+    <t>210472002884</t>
+  </si>
+  <si>
+    <t>210433023765</t>
+  </si>
+  <si>
+    <t>210451020146</t>
+  </si>
+  <si>
+    <t>210451023047</t>
+  </si>
+  <si>
+    <t>210453025044</t>
+  </si>
+  <si>
+    <t>210411025124</t>
+  </si>
+  <si>
+    <t>210451014768</t>
+  </si>
+  <si>
+    <t>210441029376</t>
+  </si>
+  <si>
+    <t>210433012750</t>
+  </si>
+  <si>
+    <t>210453003680</t>
+  </si>
+  <si>
+    <t>210453000004</t>
+  </si>
+  <si>
+    <t>210453003730</t>
+  </si>
+  <si>
+    <t>210431017454</t>
+  </si>
+  <si>
+    <t>210434004644</t>
+  </si>
+  <si>
+    <t>210442016301</t>
+  </si>
+  <si>
+    <t>210453033357</t>
+  </si>
+  <si>
+    <t>210453003783</t>
+  </si>
+  <si>
+    <t>210411000046</t>
+  </si>
+  <si>
+    <t>210451002225</t>
+  </si>
+  <si>
     <t>130131001807</t>
   </si>
   <si>
-    <t>Ajmer Vidyut Vitran Nigam Limited (AVVNL)</t>
-  </si>
-  <si>
-    <t>210462062669</t>
-  </si>
-  <si>
-    <t>210474049604</t>
-  </si>
-  <si>
-    <t>Response_Amount</t>
-  </si>
-  <si>
     <t>8.00</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Pending</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,16 +548,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -167,12 +584,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -204,6 +636,25 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -484,28 +935,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="24" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="8"/>
-    <col min="4" max="4" width="34.5703125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="40.5703125" style="8" customWidth="1"/>
     <col min="5" max="5" width="13.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.42578125" style="7" customWidth="1"/>
     <col min="8" max="8" width="31.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -525,217 +976,2492 @@
         <v>7</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="I2" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>9</v>
+      <c r="E3" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>22</v>
+      <c r="E4" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1"/>
-    <hyperlink ref="A5" r:id="rId2"/>
-    <hyperlink ref="A6" r:id="rId3"/>
-    <hyperlink ref="A7" r:id="rId4"/>
-    <hyperlink ref="A2" r:id="rId5"/>
-    <hyperlink ref="A8" r:id="rId6"/>
-    <hyperlink ref="A3" r:id="rId7"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{E581ACDE-5471-4F37-9D87-89E441FD80D1}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{25F54370-AECC-4446-89A8-3F70E336DCE5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I139"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="33.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13">
+        <v>44483</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="15">
+        <v>4781</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13">
+        <v>44487</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="15">
+        <v>8318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13">
+        <v>44487</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="15">
+        <v>6110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13">
+        <v>44487</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="15">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
+        <v>44487</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="15">
+        <v>7898</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13">
+        <v>44487</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="15">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13">
+        <v>44487</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="15">
+        <v>3877</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13">
+        <v>44487</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="15">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13">
+        <v>44487</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="15">
+        <v>22672</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13">
+        <v>44487</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="15">
+        <v>8607</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
+        <v>44487</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="15">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
+        <v>44487</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="15">
+        <v>3929</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
+        <v>44487</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="15">
+        <v>4939</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13">
+        <v>44487</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="15">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13">
+        <v>44487</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="15">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13">
+        <v>44487</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="15">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13">
+        <v>44487</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="15">
+        <v>14408</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13">
+        <v>44487</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="15">
+        <v>2751</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13">
+        <v>44487</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="15">
+        <v>7061</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13">
+        <v>44487</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="15">
+        <v>3873</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13">
+        <v>44487</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="15">
+        <v>7873</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13">
+        <v>44487</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="15">
+        <v>14919</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="13">
+        <v>44487</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="15">
+        <v>15537</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="13">
+        <v>44487</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="15">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13">
+        <v>44487</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="15">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13">
+        <v>44487</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="15">
+        <v>3930</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="13">
+        <v>44487</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="15">
+        <v>4850</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="13">
+        <v>44487</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="15">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="13">
+        <v>44487</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="15">
+        <v>5728</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="13">
+        <v>44487</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="15">
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="13">
+        <v>44487</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="15">
+        <v>6756</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="13">
+        <v>44487</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="15">
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="13">
+        <v>44487</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="15">
+        <v>4446</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="13">
+        <v>44487</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="15">
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="13">
+        <v>44487</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="15">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="13">
+        <v>44487</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="15">
+        <v>5696</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="13">
+        <v>44487</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="15">
+        <v>6523</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="13">
+        <v>44487</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="15">
+        <v>4596</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="13">
+        <v>44487</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="15">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="13">
+        <v>44487</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="15">
+        <v>6084</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="13">
+        <v>44487</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="15">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="13">
+        <v>44487</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="15">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="13">
+        <v>44487</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" s="15">
+        <v>4512</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="13">
+        <v>44487</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" s="15">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="13">
+        <v>44487</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="15">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="13">
+        <v>44487</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" s="15">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="13">
+        <v>44487</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" s="15">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="13">
+        <v>44487</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" s="15">
+        <v>4481</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="13">
+        <v>44487</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" s="15">
+        <v>15076</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="13">
+        <v>44487</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" s="15">
+        <v>10616</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="13">
+        <v>44487</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D51" s="15">
+        <v>5551</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="13">
+        <v>44487</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" s="15">
+        <v>3499</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="13">
+        <v>44487</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53" s="15">
+        <v>6438</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="13">
+        <v>44487</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D54" s="15">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="16">
+        <v>44489</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D55" s="15">
+        <v>3779</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="16">
+        <v>44489</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D56" s="15">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="16">
+        <v>44489</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D57" s="15">
+        <v>4573</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="16">
+        <v>44489</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58" s="15">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="16">
+        <v>44490</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D59" s="15">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="16">
+        <v>44490</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D60" s="15">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="16">
+        <v>44490</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D61" s="15">
+        <v>6467</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="16">
+        <v>44491</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D62" s="15">
+        <v>7268</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="16">
+        <v>44494</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D63" s="15">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="16">
+        <v>44494</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D64" s="15">
+        <v>4071</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="16">
+        <v>44494</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D65" s="15">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="16">
+        <v>44494</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D66" s="15">
+        <v>6009</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="16">
+        <v>44494</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D67" s="15">
+        <v>3311</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="16">
+        <v>44494</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D68" s="15">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="14"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D69" s="15">
+        <v>355033</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F72" s="7"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+    </row>
+    <row r="73" spans="1:9" s="10" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+    </row>
+    <row r="74" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F74" s="7"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+    </row>
+    <row r="75" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F75" s="7"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+    </row>
+    <row r="76" spans="1:9" s="8" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+    </row>
+    <row r="77" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+    </row>
+    <row r="78" spans="1:9" s="5" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F78" s="7"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+    </row>
+    <row r="79" spans="1:9" s="8" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+    </row>
+    <row r="80" spans="1:9" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+    </row>
+    <row r="81" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+    </row>
+    <row r="82" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+    </row>
+    <row r="83" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+    </row>
+    <row r="84" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+    </row>
+    <row r="85" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+    </row>
+    <row r="86" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+    </row>
+    <row r="87" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+    </row>
+    <row r="88" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+    </row>
+    <row r="89" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+    </row>
+    <row r="90" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+    </row>
+    <row r="91" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E91" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+    </row>
+    <row r="92" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+    </row>
+    <row r="93" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E93" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+    </row>
+    <row r="94" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+    </row>
+    <row r="95" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E95" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+    </row>
+    <row r="96" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E96" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+    </row>
+    <row r="97" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+    </row>
+    <row r="98" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+    </row>
+    <row r="99" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+    </row>
+    <row r="100" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+    </row>
+    <row r="101" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+    </row>
+    <row r="102" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E102" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+    </row>
+    <row r="103" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E103" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+    </row>
+    <row r="104" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E104" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+    </row>
+    <row r="105" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E105" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+    </row>
+    <row r="106" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E106" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+    </row>
+    <row r="107" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+    </row>
+    <row r="108" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E108" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+    </row>
+    <row r="109" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E109" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+    </row>
+    <row r="110" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E110" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+    </row>
+    <row r="111" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E111" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+    </row>
+    <row r="112" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E112" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+    </row>
+    <row r="113" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E113" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+    </row>
+    <row r="114" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E114" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+    </row>
+    <row r="115" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E115" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
+    </row>
+    <row r="116" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E116" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
+    </row>
+    <row r="117" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E117" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
+    </row>
+    <row r="118" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E118" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+    </row>
+    <row r="119" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E119" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
+    </row>
+    <row r="120" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E120" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
+    </row>
+    <row r="121" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E121" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F121" s="7"/>
+      <c r="G121" s="7"/>
+    </row>
+    <row r="122" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E122" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F122" s="7"/>
+      <c r="G122" s="7"/>
+    </row>
+    <row r="123" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E123" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="F123" s="7"/>
+      <c r="G123" s="7"/>
+    </row>
+    <row r="124" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E124" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="F124" s="7"/>
+      <c r="G124" s="7"/>
+    </row>
+    <row r="125" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E125" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F125" s="7"/>
+      <c r="G125" s="7"/>
+    </row>
+    <row r="126" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E126" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="F126" s="7"/>
+      <c r="G126" s="7"/>
+    </row>
+    <row r="127" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E127" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="F127" s="7"/>
+      <c r="G127" s="7"/>
+    </row>
+    <row r="128" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E128" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="F128" s="7"/>
+      <c r="G128" s="7"/>
+    </row>
+    <row r="129" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E129" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="F129" s="7"/>
+      <c r="G129" s="7"/>
+    </row>
+    <row r="130" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E130" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="F130" s="7"/>
+      <c r="G130" s="7"/>
+    </row>
+    <row r="131" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E131" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="F131" s="7"/>
+      <c r="G131" s="7"/>
+    </row>
+    <row r="132" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E132" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="F132" s="7"/>
+      <c r="G132" s="7"/>
+    </row>
+    <row r="133" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E133" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="F133" s="7"/>
+      <c r="G133" s="7"/>
+    </row>
+    <row r="134" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E134" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="F134" s="7"/>
+      <c r="G134" s="7"/>
+    </row>
+    <row r="135" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E135" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="F135" s="7"/>
+      <c r="G135" s="7"/>
+    </row>
+    <row r="136" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E136" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="F136" s="7"/>
+      <c r="G136" s="7"/>
+    </row>
+    <row r="137" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E137" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="F137" s="7"/>
+      <c r="G137" s="7"/>
+    </row>
+    <row r="138" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E138" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="F138" s="7"/>
+      <c r="G138" s="7"/>
+    </row>
+    <row r="139" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E139" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="F139" s="7"/>
+      <c r="G139" s="7"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A74" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A75" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A76" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A77" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="A73" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="A78" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="A79" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="A80" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="A81" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="A82" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="A83" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="A84" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="A85" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="A86" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="A87" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="A88" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="A89" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="A90" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="A91" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="A92" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="A93" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="A94" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="A95" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="A96" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="A97" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="A98" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="A99" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="A100" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="A101" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="A102" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="A103" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="A104" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="A105" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="A106" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="A107" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="A108" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="A109" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="A110" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="A111" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="A112" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="A113" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="A114" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="A115" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="A116" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="A117" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="A118" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="A119" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="A120" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="A121" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="A122" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="A123" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="A124" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="A125" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="A126" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="A127" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="A128" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="A129" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="A130" r:id="rId58" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="A131" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="A132" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="A133" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="A134" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="A135" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
+    <hyperlink ref="A136" r:id="rId64" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
+    <hyperlink ref="A137" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
+    <hyperlink ref="A138" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
+    <hyperlink ref="A139" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
+    <hyperlink ref="A72" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId69"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -753,15 +3479,41 @@
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
+      <c r="C2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
